--- a/api.xlsx
+++ b/api.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Votex\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tmp\DB-student-forum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12141F9A-5818-4190-B8D2-EDD0733E04CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267412FF-5C56-438C-8BE1-3A6F2E208C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="486" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="119">
   <si>
     <t>api接口</t>
   </si>
@@ -416,6 +416,42 @@
   </si>
   <si>
     <t>提交对comment_id的评论的举报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询参数类似 http://localhost:5000/search_posts?keyword=Flask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个包含'success'和'message'以及搜索结果"posts"的json数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/search_posts?keyword=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/forum&lt;forum_id&gt;/search_posts?keyword=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/auth/set_username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名”username“</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 搜索标题关键词包含keyword= ？的帖子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 在forum_id中搜索标题关键词包含keyword=？的帖子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,7 +459,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,6 +495,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -585,7 +628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -600,6 +643,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -810,8 +855,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E7C9CC93-57C4-4E31-AD0C-5ECEA7CC777B}" name="表6" displayName="表6" ref="A1:G44" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
-  <autoFilter ref="A1:G44" xr:uid="{E7C9CC93-57C4-4E31-AD0C-5ECEA7CC777B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E7C9CC93-57C4-4E31-AD0C-5ECEA7CC777B}" name="表6" displayName="表6" ref="A1:G49" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
+  <autoFilter ref="A1:G49" xr:uid="{E7C9CC93-57C4-4E31-AD0C-5ECEA7CC777B}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{2CD79622-4599-493A-91A2-2CC28D666EBC}" name="位置" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{A555E692-7283-45DC-8A5A-96914F8D87B7}" name="api接口" dataDxfId="5"/>
@@ -1088,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1412,19 +1457,37 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
@@ -1433,90 +1496,65 @@
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="E19" s="14"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
-      <c r="B21" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
-      <c r="B22" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
+      <c r="A23" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="B23" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>27</v>
+        <v>9</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>22</v>
@@ -1524,20 +1562,22 @@
       <c r="E24" s="10" t="s">
         <v>27</v>
       </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>90</v>
+        <v>22</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -1545,52 +1585,49 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
+      <c r="E26" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>100</v>
+      <c r="E28" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -1598,206 +1635,202 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
+      <c r="B30" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
+      <c r="B31" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
+      <c r="B32" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
-      <c r="B34" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
-      <c r="B35" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
+      <c r="A36" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="B36" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F36" s="4"/>
+      <c r="E36" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>81</v>
-      </c>
+      <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G40" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>22</v>
@@ -1806,26 +1839,118 @@
         <v>27</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C45" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D45" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E45" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/api.xlsx
+++ b/api.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tmp\DB-student-forum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267412FF-5C56-438C-8BE1-3A6F2E208C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D69115-5CAB-435D-AD06-215763060E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="486" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2880" yWindow="960" windowWidth="19200" windowHeight="9970" tabRatio="486" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="121">
   <si>
     <t>api接口</t>
   </si>
@@ -452,6 +452,14 @@
   </si>
   <si>
     <t xml:space="preserve"> 在forum_id中搜索标题关键词包含keyword=？的帖子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/post&lt;postt_id&gt;/click_like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞帖子：未点赞时点赞，有点赞时取消点赞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -628,7 +636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -643,7 +651,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1135,8 +1142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1493,12 +1500,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="14"/>
+      <c r="B19" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
@@ -1918,7 +1935,7 @@
       <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="14" t="s">
         <v>114</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -1930,7 +1947,7 @@
       <c r="E46" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="F46" s="14" t="s">
         <v>116</v>
       </c>
     </row>

--- a/api.xlsx
+++ b/api.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Votex\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web projects\db_project\database-proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12141F9A-5818-4190-B8D2-EDD0733E04CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBAEC1E-4C1F-4FC0-999C-197D45BC3EC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="486" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="25824" windowHeight="13896" tabRatio="486" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1091,20 +1091,20 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.9140625" customWidth="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="45.4140625" customWidth="1"/>
-    <col min="5" max="5" width="50.5" customWidth="1"/>
-    <col min="6" max="6" width="32.5" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="38.5546875" customWidth="1"/>
+    <col min="3" max="3" width="45.44140625" customWidth="1"/>
+    <col min="5" max="5" width="65.21875" customWidth="1"/>
+    <col min="6" max="6" width="51.21875" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>12</v>
@@ -1165,7 +1165,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
         <v>15</v>
@@ -1184,7 +1184,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
         <v>61</v>
@@ -1201,7 +1201,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>19</v>
@@ -1222,7 +1222,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="7" t="s">
         <v>57</v>
@@ -1243,7 +1243,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>58</v>
@@ -1260,7 +1260,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>62</v>
@@ -1281,7 +1281,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>30</v>
@@ -1298,7 +1298,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>34</v>
@@ -1315,7 +1315,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>65</v>
@@ -1334,7 +1334,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>67</v>
@@ -1353,7 +1353,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>69</v>
@@ -1372,7 +1372,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>106</v>
@@ -1391,7 +1391,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>108</v>
@@ -1410,7 +1410,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1419,7 +1419,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1428,7 +1428,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1437,7 +1437,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>37</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>94</v>
@@ -1475,7 +1475,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
         <v>96</v>
@@ -1492,7 +1492,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>42</v>
@@ -1511,7 +1511,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>92</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>88</v>
@@ -1542,7 +1542,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>54</v>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>55</v>
@@ -1578,7 +1578,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
         <v>98</v>
@@ -1595,7 +1595,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>101</v>
@@ -1612,7 +1612,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1621,7 +1621,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1630,7 +1630,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1639,7 +1639,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>45</v>
       </c>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
         <v>77</v>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>50</v>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
         <v>52</v>
@@ -1715,7 +1715,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>91</v>
@@ -1734,7 +1734,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>74</v>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>79</v>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>82</v>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>85</v>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>103</v>
